--- a/DOC/内部設定/OpenAI連携機能_内部設計書.xlsx
+++ b/DOC/内部設定/OpenAI連携機能_内部設計書.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="表紙" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="改訂履歴" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="システム構成" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="コンポーネント設計" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="クラス設計" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="シーケンス詳細" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="データ構造" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="アルゴリズム" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表紙" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="改訂履歴" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="システム構成" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="コンポーネント設計" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="クラス設計" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="シーケンス詳細" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="データ構造" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="アルゴリズム" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025年05月16日</t>
+          <t>2025年05月19日</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -635,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -843,6 +843,33 @@
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>SQLite, SQLAlchemy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>COMP-007</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>サービス層</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>ビジネスロジックの分離と管理</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>COMP-001, COMP-002, COMP-006</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Python</t>
         </is>
       </c>
     </row>
@@ -994,7 +1021,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>POST /llm/chat</t>
+          <t>POST /api/v1/llm/chat</t>
         </is>
       </c>
       <c r="E6" s="5" t="inlineStr">
